--- a/com.sevenmartmarket/src/main/resources/ExcelFiles/login_file1.xlsx
+++ b/com.sevenmartmarket/src/main/resources/ExcelFiles/login_file1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2870a8525d569312/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devir\git\sevenmartmarket\sevenmartmarket\com.sevenmartmarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F6D354-0E15-42E5-86FA-7A2FC420C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E40F6F-74CD-423C-8CA8-E4D7A05E9DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="3360" windowWidth="13704" windowHeight="8880" xr2:uid="{EF12AD49-3EB2-4C78-8528-C75EB76A78CB}"/>
+    <workbookView xWindow="3996" yWindow="3360" windowWidth="13704" windowHeight="8880" xr2:uid="{EF12AD49-3EB2-4C78-8528-C75EB76A78CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="userdetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
